--- a/Mifos Automation Excels/Client/Createclient.xlsx
+++ b/Mifos Automation Excels/Client/Createclient.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>office</t>
   </si>
@@ -29,27 +34,12 @@
     <t>dateofbirth</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>clienttype</t>
-  </si>
-  <si>
-    <t>clientclassification</t>
-  </si>
-  <si>
-    <t>externalid</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
     <t>submittedon</t>
   </si>
   <si>
-    <t>begum</t>
-  </si>
-  <si>
     <t>checked</t>
   </si>
   <si>
@@ -59,31 +49,22 @@
     <t>firstname</t>
   </si>
   <si>
-    <t>ValidOffice</t>
-  </si>
-  <si>
-    <t>banu</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>salma5 banu begum</t>
-  </si>
-  <si>
-    <t>salma5</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Money Group</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>t45121q85</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>Eresh</t>
+  </si>
+  <si>
+    <t>Bhutanal</t>
+  </si>
+  <si>
+    <t>Eresh N Bhutanal</t>
   </si>
 </sst>
 </file>
@@ -139,13 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -167,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -215,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,161 +439,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
-        <v>40211</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="6">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8">
-        <v>42046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8">
-        <v>40211</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="B8" s="6">
+        <v>42005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -636,11 +537,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/Createclient.xlsx
+++ b/Mifos Automation Excels/Client/Createclient.xlsx
@@ -4,56 +4,59 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
-    <sheet name="Output" sheetId="8" r:id="rId2"/>
+    <sheet name="Output" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>middlename</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>lastname</t>
   </si>
   <si>
-    <t>dateofbirth</t>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Deer</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Jhon Deer</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>activationdate</t>
+  </si>
+  <si>
     <t>submittedon</t>
   </si>
   <si>
-    <t>checked</t>
-  </si>
-  <si>
-    <t>activationdate</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Jhon</t>
-  </si>
-  <si>
-    <t>Deer</t>
-  </si>
-  <si>
-    <t>Jhon N Deer</t>
+    <t>office</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -112,16 +115,18 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -442,59 +447,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>42005</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -507,26 +512,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mifos Automation Excels/Client/Createclient.xlsx
+++ b/Mifos Automation Excels/Client/Createclient.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>lastname</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>submittedon</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>Head Office</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -433,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -448,58 +436,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="7">
         <v>42005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/Createclient.xlsx
+++ b/Mifos Automation Excels/Client/Createclient.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -29,22 +29,22 @@
     <t>Deer</t>
   </si>
   <si>
-    <t>Verify</t>
+    <t>active</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>activationdate</t>
+  </si>
+  <si>
+    <t>submittedon</t>
+  </si>
+  <si>
+    <t>verifyclient</t>
   </si>
   <si>
     <t>Jhon Deer</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>checked</t>
-  </si>
-  <si>
-    <t>activationdate</t>
-  </si>
-  <si>
-    <t>submittedon</t>
   </si>
 </sst>
 </file>
@@ -100,14 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -117,6 +114,8 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -452,25 +451,25 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
         <v>42005</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
         <v>42005</v>
       </c>
     </row>
@@ -484,18 +483,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/Createclient.xlsx
+++ b/Mifos Automation Excels/Client/Createclient.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>42005</v>
+        <v>41640</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>42005</v>
+        <v>41640</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/Createclient.xlsx
+++ b/Mifos Automation Excels/Client/Createclient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>lastname</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Jhon Deer</t>
+  </si>
+  <si>
+    <t>submitclient</t>
+  </si>
+  <si>
+    <t>submit</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -471,6 +477,14 @@
       </c>
       <c r="B5" s="6">
         <v>41640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/Createclient.xlsx
+++ b/Mifos Automation Excels/Client/Createclient.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>41640</v>
+        <v>41275</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>41640</v>
+        <v>41275</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
